--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N2">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q2">
-        <v>0.006808518785</v>
+        <v>0.006928276844999998</v>
       </c>
       <c r="R2">
-        <v>0.061276669065</v>
+        <v>0.06235449160499999</v>
       </c>
       <c r="S2">
-        <v>0.001074735090408006</v>
+        <v>0.001035354438238793</v>
       </c>
       <c r="T2">
-        <v>0.001074735090408006</v>
+        <v>0.001035354438238793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.660931</v>
       </c>
       <c r="O3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q3">
-        <v>0.08704107514566667</v>
+        <v>0.02481501062833333</v>
       </c>
       <c r="R3">
-        <v>0.7833696763110001</v>
+        <v>0.223335095655</v>
       </c>
       <c r="S3">
-        <v>0.01373956666932925</v>
+        <v>0.003708329208514436</v>
       </c>
       <c r="T3">
-        <v>0.01373956666932925</v>
+        <v>0.003708329208514436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N4">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q4">
-        <v>0.1187935968573334</v>
+        <v>0.03386750868666666</v>
       </c>
       <c r="R4">
-        <v>1.069142371716</v>
+        <v>0.3048075781799999</v>
       </c>
       <c r="S4">
-        <v>0.01875175072434766</v>
+        <v>0.005061125040945332</v>
       </c>
       <c r="T4">
-        <v>0.01875175072434766</v>
+        <v>0.005061125040945331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N5">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q5">
-        <v>0.029421426465</v>
+        <v>0.105013733661</v>
       </c>
       <c r="R5">
-        <v>0.264792838185</v>
+        <v>0.9451236029489999</v>
       </c>
       <c r="S5">
-        <v>0.004644217109521314</v>
+        <v>0.01569314241540574</v>
       </c>
       <c r="T5">
-        <v>0.004644217109521314</v>
+        <v>0.01569314241540573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.660931</v>
       </c>
       <c r="O6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q6">
         <v>0.376127711871</v>
@@ -818,10 +818,10 @@
         <v>3.385149406839</v>
       </c>
       <c r="S6">
-        <v>0.05937233386404405</v>
+        <v>0.05620813147951538</v>
       </c>
       <c r="T6">
-        <v>0.05937233386404405</v>
+        <v>0.05620813147951537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N7">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q7">
-        <v>0.5133388310760001</v>
+        <v>0.513338831076</v>
       </c>
       <c r="R7">
-        <v>4.620049479684002</v>
+        <v>4.620049479684</v>
       </c>
       <c r="S7">
-        <v>0.08103131862423216</v>
+        <v>0.07671281748194213</v>
       </c>
       <c r="T7">
-        <v>0.08103131862423216</v>
+        <v>0.07671281748194211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N8">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q8">
-        <v>0.1666094797383333</v>
+        <v>0.5946782883369999</v>
       </c>
       <c r="R8">
-        <v>1.499485317645</v>
+        <v>5.352104595033</v>
       </c>
       <c r="S8">
-        <v>0.02629956087716199</v>
+        <v>0.08886810081763727</v>
       </c>
       <c r="T8">
-        <v>0.02629956087716199</v>
+        <v>0.08886810081763725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.660931</v>
       </c>
       <c r="O9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q9">
         <v>2.129959350018111</v>
@@ -1004,10 +1004,10 @@
         <v>19.169634150163</v>
       </c>
       <c r="S9">
-        <v>0.3362173369706127</v>
+        <v>0.318298895330801</v>
       </c>
       <c r="T9">
-        <v>0.3362173369706127</v>
+        <v>0.318298895330801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N10">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q10">
-        <v>2.906966991447556</v>
+        <v>2.906966991447555</v>
       </c>
       <c r="R10">
         <v>26.162702923028</v>
       </c>
       <c r="S10">
-        <v>0.4588691800703429</v>
+        <v>0.434414103787</v>
       </c>
       <c r="T10">
-        <v>0.4588691800703429</v>
+        <v>0.434414103787</v>
       </c>
     </row>
   </sheetData>
